--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1181.894887232282</v>
+        <v>1084.604887231449</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9769999980926514</v>
+        <v>0.9749999046325684</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.1085826636473</v>
+        <v>36.73637742065376</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.97351323924379</v>
+        <v>17.57304327632959</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.469817807045694</v>
+        <v>5.441553087125036</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>907.6500000008333</v>
+        <v>914</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.64</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18.10555953090574</v>
+        <v>24.32139719276459</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>27.42695672367041</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>38.09509638808869</v>
       </c>
     </row>
     <row r="8">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>3</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1116,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>132.520000000022</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>143.7650000000301</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.9400000000188</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>139.9650000000215</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>138.1300000000234</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.51000000000333</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.96500000000481</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14500000000398</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69500000000494</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95500000000565</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>178.1200000000524</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>182.4900000000561</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>177.3350000000497</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>178.1400000000522</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>179.3950000000522</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.6700000000014</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>108.670000000001</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>115.8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>112.3250000000006</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>117.88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000043</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000065</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000065</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.2950000000004</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>178.1200000000839</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>182.4900000000822</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>177.3350000000848</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>178.1400000000837</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.3950000000835</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>103.6700000000014</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>108.670000000001</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>115.8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>112.3250000000006</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>117.88</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>78.120000000083</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>82.4900000000813</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>77.33500000008394</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>78.14000000008275</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>79.39500000008263</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.670000000001352</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>8.670000000001011</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.32500000000059</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.88000000000004</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
